--- a/data/trans_dic/P33_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3095617068970504</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3260114512714281</v>
+        <v>0.326011451271428</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1634058951935476</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1115787532632251</v>
+        <v>0.1158679538929367</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2440965452751203</v>
+        <v>0.2440915369611451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1777154243005175</v>
+        <v>0.1787467615333204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1898836871066232</v>
+        <v>0.19450044797347</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1593088357367256</v>
+        <v>0.1640853927896881</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2976252199778563</v>
+        <v>0.2966625529149105</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2750761507092571</v>
+        <v>0.2733898057182024</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3003362742727189</v>
+        <v>0.2953007721534325</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1446807361549836</v>
+        <v>0.1435112075266337</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.281684313086303</v>
+        <v>0.2781816960132908</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2366760006592813</v>
+        <v>0.2344111713271756</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2569878669052483</v>
+        <v>0.2553336102352586</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1641146055482978</v>
+        <v>0.1658622777453498</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3118369682781134</v>
+        <v>0.3148283754007477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2434934722344763</v>
+        <v>0.2418573484772097</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2585802455143445</v>
+        <v>0.2635701673871386</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2193908645775444</v>
+        <v>0.2217625330559971</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3741107449479779</v>
+        <v>0.36932282387779</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3507689586465915</v>
+        <v>0.3445422441294731</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3554237027307247</v>
+        <v>0.3533291019709293</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1828869655416818</v>
+        <v>0.183253746841694</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3303635868220136</v>
+        <v>0.3292192258531154</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2859472728792645</v>
+        <v>0.2847963450639324</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2996876997346351</v>
+        <v>0.2980338642084067</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1831004033877723</v>
+        <v>0.1804296414490416</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2355820551277398</v>
+        <v>0.2321395963662836</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1673682894248593</v>
+        <v>0.1683905154105961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1807771638244745</v>
+        <v>0.1786716761770047</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2127121467913907</v>
+        <v>0.2133071826739356</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3106011234191803</v>
+        <v>0.3101009582128998</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2456419897327998</v>
+        <v>0.2437743150447643</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2412551688570748</v>
+        <v>0.240809629978624</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2073538004707224</v>
+        <v>0.2059997333220616</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.281720845900781</v>
+        <v>0.282477141721528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.215329822206282</v>
+        <v>0.2131974854274855</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2158543961153357</v>
+        <v>0.2193305293020218</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2334274376229375</v>
+        <v>0.2372985660927557</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2926440521948249</v>
+        <v>0.2918103084429769</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2230018183092159</v>
+        <v>0.2204238176387112</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2332150097036778</v>
+        <v>0.2336795985309673</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2704476352262404</v>
+        <v>0.2684792110372907</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3699744043708015</v>
+        <v>0.368329100462634</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3036164261344181</v>
+        <v>0.3033404853465264</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2877378489256847</v>
+        <v>0.2857818023728894</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2452702293875823</v>
+        <v>0.2445422774896585</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3236396635030989</v>
+        <v>0.322660845370641</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2543572161649426</v>
+        <v>0.2507030799694122</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2507361107534303</v>
+        <v>0.2538698010326957</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2616687484747893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2727355076167281</v>
+        <v>0.272735507616728</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3018642727640498</v>
@@ -957,7 +957,7 @@
         <v>0.3080251261263556</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3031215350446298</v>
+        <v>0.3031215350446299</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.251292157027796</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1687728704118346</v>
+        <v>0.1687503647002009</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.192264641842791</v>
+        <v>0.1955010730491753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2287649583667553</v>
+        <v>0.2313378690459708</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2383630820305074</v>
+        <v>0.2382839591649378</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2715418146473401</v>
+        <v>0.2691407706542776</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2620800750896696</v>
+        <v>0.2588842689738978</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2705297857399713</v>
+        <v>0.2741056089015335</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2707280192221012</v>
+        <v>0.2735309070145688</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2287842641847323</v>
+        <v>0.2284580950557659</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2359572700121784</v>
+        <v>0.2377114575285063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.261857666936209</v>
+        <v>0.2628108682666632</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2641186730549988</v>
+        <v>0.2667880137331859</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2318953676363452</v>
+        <v>0.2340865661754785</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2561814973785052</v>
+        <v>0.2579574511932768</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2954871073122445</v>
+        <v>0.2971957206898032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.311790865730338</v>
+        <v>0.3084877628989351</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3395538451379269</v>
+        <v>0.3347948563223153</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3327935623569441</v>
+        <v>0.3282749335708948</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3398905185203192</v>
+        <v>0.3447006536480992</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3325887401887945</v>
+        <v>0.3331420195130884</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.274188507179139</v>
+        <v>0.2765053419022632</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2835869352638248</v>
+        <v>0.2831814862850955</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3100700492132245</v>
+        <v>0.3089620288862988</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3123169240988648</v>
+        <v>0.3137378743836535</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2646230453704573</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2797670030743139</v>
+        <v>0.2797670030743138</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2328145150427915</v>
@@ -1105,7 +1105,7 @@
         <v>0.2647715323410446</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3110647179586712</v>
+        <v>0.3110647179586711</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.164574615566683</v>
+        <v>0.1626698281669868</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.236661149470468</v>
+        <v>0.2399745854939523</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2357833225159532</v>
+        <v>0.2359918465053343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2502421287529725</v>
+        <v>0.2530429818038207</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2066151510234882</v>
+        <v>0.2065193349147039</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2993962082922561</v>
+        <v>0.301374414501313</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2398847434663844</v>
+        <v>0.2383538737512887</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3138224694601339</v>
+        <v>0.3155600395320256</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1942667197197266</v>
+        <v>0.1948401088866247</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2787593845369856</v>
+        <v>0.279295534995762</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2462196914077104</v>
+        <v>0.2434459935077314</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2906420056297417</v>
+        <v>0.291628056553884</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.213602929669997</v>
+        <v>0.211549758475577</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2977339620599428</v>
+        <v>0.3001834223676766</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.295923598603329</v>
+        <v>0.2948409514098369</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3071033720323899</v>
+        <v>0.3086589780884038</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.259369573085467</v>
+        <v>0.2613686420223673</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3567723166964621</v>
+        <v>0.3616814798739841</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2976599962988711</v>
+        <v>0.2933941965525397</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3639992729394784</v>
+        <v>0.3660498116096276</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2297239501038531</v>
+        <v>0.2305811295801196</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3216406593312556</v>
+        <v>0.3211435141089092</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2864226294691248</v>
+        <v>0.2856963234612052</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3286825854760584</v>
+        <v>0.3314073087612895</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2852418640555737</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3071732958456827</v>
+        <v>0.3071732958456826</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2133646904423134</v>
@@ -1241,7 +1241,7 @@
         <v>0.259270455271246</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2769846850682214</v>
+        <v>0.2769846850682213</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1715312854670004</v>
+        <v>0.1723010670209636</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2447058896248633</v>
+        <v>0.2448535158396208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2185916074531188</v>
+        <v>0.2172433561607853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2290175119960609</v>
+        <v>0.2306638121045545</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2246427540935662</v>
+        <v>0.2258865220161908</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3104001888165699</v>
+        <v>0.309624652132137</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2694438467051394</v>
+        <v>0.2696751715542989</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2942042599296658</v>
+        <v>0.2929444481281129</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2029643550504572</v>
+        <v>0.2031120857314236</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2812791370273909</v>
+        <v>0.2822870209652711</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2485149825492851</v>
+        <v>0.2487027596238129</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2662657736395296</v>
+        <v>0.2666667373365597</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1988603181519982</v>
+        <v>0.200546115789403</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2746936813146051</v>
+        <v>0.2751829376834246</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2477010751105728</v>
+        <v>0.2479962988855136</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2602292004054756</v>
+        <v>0.2617179488535311</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2553810262365986</v>
+        <v>0.2559794162515445</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3425454331336784</v>
+        <v>0.3413898471918803</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3001694791170503</v>
+        <v>0.3012940722239597</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3218693761882977</v>
+        <v>0.3192707727500052</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2238148681723865</v>
+        <v>0.2235254337148921</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3040333240577391</v>
+        <v>0.3048555372280405</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.269457914072071</v>
+        <v>0.270131333701351</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2866110853565091</v>
+        <v>0.2867931468849968</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>76436</v>
+        <v>79374</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>171453</v>
+        <v>171450</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>119297</v>
+        <v>119989</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>128425</v>
+        <v>131548</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>109225</v>
+        <v>112500</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>207111</v>
+        <v>206441</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>182775</v>
+        <v>181655</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>214104</v>
+        <v>210515</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>198308</v>
+        <v>196705</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>393873</v>
+        <v>388975</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>316137</v>
+        <v>313111</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>357012</v>
+        <v>354714</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>112425</v>
+        <v>113622</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>219034</v>
+        <v>221135</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>163453</v>
+        <v>162354</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>174887</v>
+        <v>178262</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>150419</v>
+        <v>152045</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>260335</v>
+        <v>257004</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>233070</v>
+        <v>228932</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>253375</v>
+        <v>251882</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>250676</v>
+        <v>251179</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>461940</v>
+        <v>460340</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>381950</v>
+        <v>380413</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>416332</v>
+        <v>414034</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>173861</v>
+        <v>171325</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>239343</v>
+        <v>235845</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>170579</v>
+        <v>171621</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>184675</v>
+        <v>182525</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>204688</v>
+        <v>205261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>320267</v>
+        <v>319751</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>255667</v>
+        <v>253723</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>248388</v>
+        <v>247929</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>396422</v>
+        <v>393833</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>576706</v>
+        <v>578254</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>443578</v>
+        <v>439186</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>442745</v>
+        <v>449875</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>221648</v>
+        <v>225324</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>297316</v>
+        <v>296468</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>227280</v>
+        <v>224652</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>238244</v>
+        <v>238719</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>260246</v>
+        <v>258352</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>381488</v>
+        <v>379792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>316008</v>
+        <v>315720</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>296245</v>
+        <v>294231</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>468911</v>
+        <v>467520</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>662517</v>
+        <v>660514</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>523974</v>
+        <v>516447</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>514292</v>
+        <v>520719</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>113183</v>
+        <v>113168</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>145279</v>
+        <v>147724</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>173759</v>
+        <v>175713</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>176733</v>
+        <v>176675</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>183978</v>
+        <v>182351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>203424</v>
+        <v>200944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>212112</v>
+        <v>214916</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>207914</v>
+        <v>210067</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>308436</v>
+        <v>307996</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>361442</v>
+        <v>364129</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>404208</v>
+        <v>405679</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>398668</v>
+        <v>402697</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>155514</v>
+        <v>156984</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>193575</v>
+        <v>194917</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>224438</v>
+        <v>225736</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>231176</v>
+        <v>228727</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>230058</v>
+        <v>226834</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>258312</v>
+        <v>254804</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>266496</v>
+        <v>270267</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>255422</v>
+        <v>255847</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>369648</v>
+        <v>372771</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>434401</v>
+        <v>433780</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>478629</v>
+        <v>476919</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>471420</v>
+        <v>473564</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>152134</v>
+        <v>150373</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>222362</v>
+        <v>225475</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>221063</v>
+        <v>221258</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>247524</v>
+        <v>250294</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>213167</v>
+        <v>213068</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>313099</v>
+        <v>315168</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>249642</v>
+        <v>248049</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>349340</v>
+        <v>351274</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>380008</v>
+        <v>381130</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>553434</v>
+        <v>554498</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>487082</v>
+        <v>481595</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>611021</v>
+        <v>613094</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>197456</v>
+        <v>195558</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>279744</v>
+        <v>282046</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>277448</v>
+        <v>276433</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>303768</v>
+        <v>305306</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>267594</v>
+        <v>269657</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>373101</v>
+        <v>378235</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>309767</v>
+        <v>305328</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>405195</v>
+        <v>407478</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>449367</v>
+        <v>451043</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>638568</v>
+        <v>637581</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>566613</v>
+        <v>565176</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>690994</v>
+        <v>696722</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>553978</v>
+        <v>556464</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>835318</v>
+        <v>835822</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>740497</v>
+        <v>735930</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>785183</v>
+        <v>790827</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>754157</v>
+        <v>758332</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1101597</v>
+        <v>1098845</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>951137</v>
+        <v>951954</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1066079</v>
+        <v>1061514</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1336874</v>
+        <v>1337847</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1958411</v>
+        <v>1965428</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1719124</v>
+        <v>1720423</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1877729</v>
+        <v>1880557</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>642240</v>
+        <v>647685</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>937683</v>
+        <v>939353</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>839108</v>
+        <v>840108</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>892192</v>
+        <v>897296</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>857349</v>
+        <v>859358</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1215679</v>
+        <v>1211578</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1059599</v>
+        <v>1063569</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1166327</v>
+        <v>1156910</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1474211</v>
+        <v>1472305</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2116837</v>
+        <v>2122562</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1863999</v>
+        <v>1868657</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2021206</v>
+        <v>2022490</v>
       </c>
     </row>
     <row r="24">
